--- a/data/extracted_data/const1/const1-trial1-tdoa2-results-new-describe.xlsx
+++ b/data/extracted_data/const1/const1-trial1-tdoa2-results-new-describe.xlsx
@@ -605,22 +605,22 @@
         <v>1.436327139052271</v>
       </c>
       <c r="F3">
-        <v>0.01725719807044216</v>
+        <v>0.01686864798798742</v>
       </c>
       <c r="G3">
-        <v>0.02584961248782781</v>
+        <v>0.02618738993865144</v>
       </c>
       <c r="H3">
-        <v>0.159766679652899</v>
+        <v>0.1471968285029377</v>
       </c>
       <c r="I3">
-        <v>-0.329882265200825</v>
+        <v>-0.3374697205490207</v>
       </c>
       <c r="J3">
-        <v>2.098731180266107</v>
+        <v>2.107443728200576</v>
       </c>
       <c r="K3">
-        <v>0.004843788495455401</v>
+        <v>0.005062548164391044</v>
       </c>
       <c r="L3">
         <v>3.502101289265617</v>
@@ -670,22 +670,22 @@
         <v>0.2800652668130645</v>
       </c>
       <c r="F4">
-        <v>0.01840274060453637</v>
+        <v>0.01884803386820201</v>
       </c>
       <c r="G4">
-        <v>0.2055149636253651</v>
+        <v>0.2024299970410183</v>
       </c>
       <c r="H4">
-        <v>2.149404825275498</v>
+        <v>2.158497031243807</v>
       </c>
       <c r="I4">
-        <v>2.091041561314442</v>
+        <v>2.070837485819886</v>
       </c>
       <c r="J4">
-        <v>1.09212691205461</v>
+        <v>1.091795837396842</v>
       </c>
       <c r="K4">
-        <v>0.002495544827094181</v>
+        <v>0.003869547917816969</v>
       </c>
       <c r="L4">
         <v>2.29375126562095</v>
@@ -738,19 +738,19 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>7.50901341106669E-10</v>
+        <v>1.073013122798727E-09</v>
       </c>
       <c r="H5">
-        <v>-4.999998943210421</v>
+        <v>-4.999998226910406</v>
       </c>
       <c r="I5">
-        <v>-4.999996296841907</v>
+        <v>-4.999997401756843</v>
       </c>
       <c r="J5">
-        <v>3.347921742559348E-08</v>
+        <v>2.56010901982046E-07</v>
       </c>
       <c r="K5">
-        <v>0.0009827613830566406</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -803,19 +803,19 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.371406175256553E-05</v>
+        <v>3.435346573077425E-05</v>
       </c>
       <c r="H6">
-        <v>-1.075131405250302</v>
+        <v>-1.100049705720987</v>
       </c>
       <c r="I6">
-        <v>-1.628230003644245</v>
+        <v>-1.603478988924876</v>
       </c>
       <c r="J6">
-        <v>1.239412255082846</v>
+        <v>1.246230149615189</v>
       </c>
       <c r="K6">
-        <v>0.003983974456787109</v>
+        <v>0.003028631210327148</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -865,22 +865,22 @@
         <v>1.500003082446145</v>
       </c>
       <c r="F7">
-        <v>0.0009253025054931641</v>
+        <v>0.0008696317672729492</v>
       </c>
       <c r="G7">
-        <v>8.174772835276012E-05</v>
+        <v>8.161551463500144E-05</v>
       </c>
       <c r="H7">
-        <v>0.1234097977664119</v>
+        <v>0.1324228565433732</v>
       </c>
       <c r="I7">
-        <v>-0.4570051230839096</v>
+        <v>-0.4503882815781118</v>
       </c>
       <c r="J7">
-        <v>2.128615792240196</v>
+        <v>2.136480794624464</v>
       </c>
       <c r="K7">
-        <v>0.004425406455993652</v>
+        <v>0.004615068435668945</v>
       </c>
       <c r="L7">
         <v>4</v>
@@ -930,22 +930,22 @@
         <v>1.504001453322607</v>
       </c>
       <c r="F8">
-        <v>0.0351414680480957</v>
+        <v>0.03553050756454468</v>
       </c>
       <c r="G8">
-        <v>0.0001661855810274337</v>
+        <v>0.0001644397724217539</v>
       </c>
       <c r="H8">
-        <v>1.612982877140581</v>
+        <v>1.636518397641288</v>
       </c>
       <c r="I8">
-        <v>0.8393557454467504</v>
+        <v>0.8025050855429787</v>
       </c>
       <c r="J8">
-        <v>3.0007452261047</v>
+        <v>3.012643609531708</v>
       </c>
       <c r="K8">
-        <v>0.005021572113037109</v>
+        <v>0.005983829498291016</v>
       </c>
       <c r="L8">
         <v>6</v>
@@ -995,22 +995,22 @@
         <v>1.67504279637619</v>
       </c>
       <c r="F9">
-        <v>0.1278629302978516</v>
+        <v>0.1148686408996582</v>
       </c>
       <c r="G9">
-        <v>5.774092807811125</v>
+        <v>5.636657073056348</v>
       </c>
       <c r="H9">
-        <v>4.999999928025449</v>
+        <v>4.999998183322772</v>
       </c>
       <c r="I9">
-        <v>4.999990731091484</v>
+        <v>4.999999514863137</v>
       </c>
       <c r="J9">
-        <v>3.999998989721029</v>
+        <v>3.999999808659127</v>
       </c>
       <c r="K9">
-        <v>0.07162976264953613</v>
+        <v>0.06602263450622559</v>
       </c>
       <c r="L9">
         <v>7</v>

--- a/data/extracted_data/const1/const1-trial1-tdoa2-results-new-describe.xlsx
+++ b/data/extracted_data/const1/const1-trial1-tdoa2-results-new-describe.xlsx
@@ -593,34 +593,34 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>1.459597058100413</v>
+        <v>10.52894440309766</v>
       </c>
       <c r="C3">
-        <v>0.1359545367020563</v>
+        <v>0.1397447643437998</v>
       </c>
       <c r="D3">
-        <v>-0.009907025512826188</v>
+        <v>-0.001050207284272222</v>
       </c>
       <c r="E3">
-        <v>1.436327139052271</v>
+        <v>1.433860764556182</v>
       </c>
       <c r="F3">
-        <v>0.01725719807044216</v>
+        <v>0.02191563217768481</v>
       </c>
       <c r="G3">
-        <v>0.02584961248782781</v>
+        <v>0.3651574798013193</v>
       </c>
       <c r="H3">
-        <v>0.159766679652899</v>
+        <v>0.3618644105231162</v>
       </c>
       <c r="I3">
-        <v>-0.329882265200825</v>
+        <v>-0.3748557118190108</v>
       </c>
       <c r="J3">
-        <v>2.098731180266107</v>
+        <v>2.1956339131675</v>
       </c>
       <c r="K3">
-        <v>0.004843788495455401</v>
+        <v>0.01302210465567142</v>
       </c>
       <c r="L3">
         <v>3.502101289265617</v>
@@ -658,34 +658,34 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>1.085826317905775</v>
+        <v>8.87040635769093</v>
       </c>
       <c r="C4">
-        <v>0.91886177661237</v>
+        <v>0.9216115049624481</v>
       </c>
       <c r="D4">
-        <v>0.8188603641901594</v>
+        <v>0.8148361946398645</v>
       </c>
       <c r="E4">
-        <v>0.2800652668130645</v>
+        <v>0.2805731066569871</v>
       </c>
       <c r="F4">
-        <v>0.01840274060453637</v>
+        <v>0.02386037005938799</v>
       </c>
       <c r="G4">
-        <v>0.2055149636253651</v>
+        <v>0.8212735483985935</v>
       </c>
       <c r="H4">
-        <v>2.149404825275498</v>
+        <v>1.158389180292403</v>
       </c>
       <c r="I4">
-        <v>2.091041561314442</v>
+        <v>1.009926565337692</v>
       </c>
       <c r="J4">
-        <v>1.09212691205461</v>
+        <v>0.973396330369356</v>
       </c>
       <c r="K4">
-        <v>0.002495544827094181</v>
+        <v>0.009775028573908363</v>
       </c>
       <c r="L4">
         <v>2.29375126562095</v>
@@ -723,13 +723,13 @@
         <v>23</v>
       </c>
       <c r="B5">
-        <v>5.383938317393699E-08</v>
+        <v>0.0006234184891853893</v>
       </c>
       <c r="C5">
-        <v>-1.299874137605956</v>
+        <v>-1.403262290267769</v>
       </c>
       <c r="D5">
-        <v>-1.416872616541814</v>
+        <v>-1.358674078705834</v>
       </c>
       <c r="E5">
         <v>0.03583751613408449</v>
@@ -738,19 +738,19 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>7.50901341106669E-10</v>
+        <v>2.883107707711878E-07</v>
       </c>
       <c r="H5">
-        <v>-4.999998943210421</v>
+        <v>-4.999984913851636</v>
       </c>
       <c r="I5">
-        <v>-4.999996296841907</v>
+        <v>-4.999885908135909</v>
       </c>
       <c r="J5">
-        <v>3.347921742559348E-08</v>
+        <v>1.214159979084917E-07</v>
       </c>
       <c r="K5">
-        <v>0.0009827613830566406</v>
+        <v>0.001941442489624023</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -788,34 +788,34 @@
         <v>24</v>
       </c>
       <c r="B6">
-        <v>0.57217484448448</v>
+        <v>3.459954986787222</v>
       </c>
       <c r="C6">
-        <v>-0.7862811447784587</v>
+        <v>-0.7859895218841414</v>
       </c>
       <c r="D6">
-        <v>-0.7831432571018827</v>
+        <v>-0.7684363995986416</v>
       </c>
       <c r="E6">
-        <v>1.497000953771275</v>
+        <v>1.496490082159868</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.371406175256553E-05</v>
+        <v>0.01084949842078752</v>
       </c>
       <c r="H6">
-        <v>-1.075131405250302</v>
+        <v>-0.551998899340684</v>
       </c>
       <c r="I6">
-        <v>-1.628230003644245</v>
+        <v>-1.123802649154736</v>
       </c>
       <c r="J6">
-        <v>1.239412255082846</v>
+        <v>1.574916891139152</v>
       </c>
       <c r="K6">
-        <v>0.003983974456787109</v>
+        <v>0.006005048751831055</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -853,34 +853,34 @@
         <v>25</v>
       </c>
       <c r="B7">
-        <v>1.278003548383721</v>
+        <v>8.459179175994375</v>
       </c>
       <c r="C7">
-        <v>0.2371747528747487</v>
+        <v>0.249002253858252</v>
       </c>
       <c r="D7">
-        <v>0.01450428204306696</v>
+        <v>0.02043822067848368</v>
       </c>
       <c r="E7">
-        <v>1.500003082446145</v>
+        <v>1.499995142240145</v>
       </c>
       <c r="F7">
-        <v>0.0009253025054931641</v>
+        <v>0.0009982585906982422</v>
       </c>
       <c r="G7">
-        <v>8.174772835276012E-05</v>
+        <v>0.07480590573184462</v>
       </c>
       <c r="H7">
-        <v>0.1234097977664119</v>
+        <v>0.150666654049012</v>
       </c>
       <c r="I7">
-        <v>-0.4570051230839096</v>
+        <v>-0.4295397360537634</v>
       </c>
       <c r="J7">
-        <v>2.128615792240196</v>
+        <v>2.099945627250928</v>
       </c>
       <c r="K7">
-        <v>0.004425406455993652</v>
+        <v>0.009973049163818359</v>
       </c>
       <c r="L7">
         <v>4</v>
@@ -918,34 +918,34 @@
         <v>26</v>
       </c>
       <c r="B8">
-        <v>2.164623064789448</v>
+        <v>15.08723264789549</v>
       </c>
       <c r="C8">
-        <v>1.08499008206194</v>
+        <v>1.088081153638578</v>
       </c>
       <c r="D8">
-        <v>0.7616630481624949</v>
+        <v>0.7662586422443076</v>
       </c>
       <c r="E8">
-        <v>1.504001453322607</v>
+        <v>1.503053724599862</v>
       </c>
       <c r="F8">
-        <v>0.0351414680480957</v>
+        <v>0.04273200035095215</v>
       </c>
       <c r="G8">
-        <v>0.0001661855810274337</v>
+        <v>0.3341787899222279</v>
       </c>
       <c r="H8">
-        <v>1.612982877140581</v>
+        <v>1.217133796487076</v>
       </c>
       <c r="I8">
-        <v>0.8393557454467504</v>
+        <v>0.4309888623111122</v>
       </c>
       <c r="J8">
-        <v>3.0007452261047</v>
+        <v>2.870644108824843</v>
       </c>
       <c r="K8">
-        <v>0.005021572113037109</v>
+        <v>0.01695370674133301</v>
       </c>
       <c r="L8">
         <v>6</v>
@@ -983,34 +983,34 @@
         <v>27</v>
       </c>
       <c r="B9">
-        <v>7.873379596961048</v>
+        <v>52.06408886402222</v>
       </c>
       <c r="C9">
-        <v>1.415698216006126</v>
+        <v>1.442059835390589</v>
       </c>
       <c r="D9">
-        <v>1.334478039019702</v>
+        <v>1.353797755966009</v>
       </c>
       <c r="E9">
         <v>1.67504279637619</v>
       </c>
       <c r="F9">
-        <v>0.1278629302978516</v>
+        <v>0.2440276145935059</v>
       </c>
       <c r="G9">
-        <v>5.774092807811125</v>
+        <v>19.04619530783155</v>
       </c>
       <c r="H9">
-        <v>4.999999928025449</v>
+        <v>4.999949174223635</v>
       </c>
       <c r="I9">
-        <v>4.999990731091484</v>
+        <v>4.999989235893082</v>
       </c>
       <c r="J9">
-        <v>3.999998989721029</v>
+        <v>3.999999934211618</v>
       </c>
       <c r="K9">
-        <v>0.07162976264953613</v>
+        <v>0.1805860996246338</v>
       </c>
       <c r="L9">
         <v>7</v>
